--- a/medicine/Psychotrope/Tsingtao_(entreprise)/Tsingtao_(entreprise).xlsx
+++ b/medicine/Psychotrope/Tsingtao_(entreprise)/Tsingtao_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tsingtao ou Qingdao (chinois simplifié : 青岛 ; chinois traditionnel : 青島 ; pinyin : Qīngdǎo ; Wade : Ch'ing-Tao ; EFEO : Ts'ing Tao ; litt. « l'île claire »), est une entreprise brassicole en Chine implantée dans la ville de Qingdao qui produit la bière du même nom.
@@ -513,14 +525,51 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La ville de Qingdao, située sur les rives de la mer Jaune au Nord-Est de la Chine, a été conquise en 1897 par la flotte allemande qui y a établi une base navale. En 1898, la ville fut cédée à l'Allemagne par les Mandchous pour 99 ans, mais les Chinois la récupérèrent en 1922. À l'occasion de cette colonisation, les Allemands établirent, dès 1903, pour leurs besoins personnels, la brasserie de Qingdao (青岛啤酒廠 / 青島啤酒廠, qīngdǎo píjiǔchǎng). La production fut par la suite reprise par les Chinois, après la Seconde Guerre mondiale.
-Histoire
-En 1994 et 1995, Tsingtao acquiert les entreprises brassicoles Yangzhou Brewery et Xi'an Hans Brewers[2].
-Entre 1997 et 2004, Tsingtao acquiert une quarantaine d'entreprises brassicoles en Chine, augmentant fortement sa taille[2].
-En 2005, le groupe américain Anheuser-Busch (ou AB) qui détenait 5 % des parts du groupe augmente sa part de capital à 27 %, pour 182 millions de dollars US. InBev rachète ces 27 % en septembre 2008[3].
-Depuis Anheuser-Busch InBev a vendu sa participation, le japonais Asahi détient environ 20 % de Tsingtao, alors que Suntory a signé avec elle un partenariat visant à créer deux coentreprises à Shanghai[4]. En décembre 2017, Fosun prend une participation de 17,90 % dans l'entreprise brassicole Tsingtao pour 844 millions de dollars, participation vendue par Asahi[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tsingtao_(entreprise)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tsingtao_(entreprise)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1994 et 1995, Tsingtao acquiert les entreprises brassicoles Yangzhou Brewery et Xi'an Hans Brewers.
+Entre 1997 et 2004, Tsingtao acquiert une quarantaine d'entreprises brassicoles en Chine, augmentant fortement sa taille.
+En 2005, le groupe américain Anheuser-Busch (ou AB) qui détenait 5 % des parts du groupe augmente sa part de capital à 27 %, pour 182 millions de dollars US. InBev rachète ces 27 % en septembre 2008.
+Depuis Anheuser-Busch InBev a vendu sa participation, le japonais Asahi détient environ 20 % de Tsingtao, alors que Suntory a signé avec elle un partenariat visant à créer deux coentreprises à Shanghai. En décembre 2017, Fosun prend une participation de 17,90 % dans l'entreprise brassicole Tsingtao pour 844 millions de dollars, participation vendue par Asahi.
 </t>
         </is>
       </c>
